--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H2">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I2">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J2">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N2">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O2">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P2">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q2">
-        <v>48.0713381632395</v>
+        <v>62.53737584286849</v>
       </c>
       <c r="R2">
-        <v>192.285352652958</v>
+        <v>250.149503371474</v>
       </c>
       <c r="S2">
-        <v>0.03740788837787348</v>
+        <v>0.08510389248611558</v>
       </c>
       <c r="T2">
-        <v>0.02244863485775199</v>
+        <v>0.05788481389834504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H3">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I3">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J3">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P3">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q3">
-        <v>118.476838308587</v>
+        <v>111.0852637079112</v>
       </c>
       <c r="R3">
-        <v>710.8610298515219</v>
+        <v>666.5115822474669</v>
       </c>
       <c r="S3">
-        <v>0.09219565154939136</v>
+        <v>0.1511702116050324</v>
       </c>
       <c r="T3">
-        <v>0.0829905111001541</v>
+        <v>0.154231363162825</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H4">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I4">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J4">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N4">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O4">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P4">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q4">
-        <v>26.68215335808</v>
+        <v>35.67624045576949</v>
       </c>
       <c r="R4">
-        <v>160.09292014848</v>
+        <v>214.057442734617</v>
       </c>
       <c r="S4">
-        <v>0.02076337070357718</v>
+        <v>0.04854995738365073</v>
       </c>
       <c r="T4">
-        <v>0.01869028221931593</v>
+        <v>0.04953307949545958</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H5">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I5">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J5">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N5">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O5">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P5">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q5">
-        <v>78.52982096050499</v>
+        <v>37.42372977857825</v>
       </c>
       <c r="R5">
-        <v>314.11928384202</v>
+        <v>149.694919114313</v>
       </c>
       <c r="S5">
-        <v>0.06110990226336971</v>
+        <v>0.05092802556199292</v>
       </c>
       <c r="T5">
-        <v>0.03667231542838781</v>
+        <v>0.0346395352286274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H6">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I6">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J6">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N6">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O6">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P6">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q6">
-        <v>47.54121404752099</v>
+        <v>15.93462746871983</v>
       </c>
       <c r="R6">
-        <v>285.2472842851259</v>
+        <v>95.60776481231898</v>
       </c>
       <c r="S6">
-        <v>0.03699535932199666</v>
+        <v>0.02168461347517319</v>
       </c>
       <c r="T6">
-        <v>0.03330161159305373</v>
+        <v>0.02212372041042768</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H7">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I7">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J7">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N7">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O7">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P7">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q7">
-        <v>27.329241009943</v>
+        <v>17.7544645088345</v>
       </c>
       <c r="R7">
-        <v>163.975446059658</v>
+        <v>106.526787053007</v>
       </c>
       <c r="S7">
-        <v>0.02126691779788507</v>
+        <v>0.02416113593421128</v>
       </c>
       <c r="T7">
-        <v>0.01914355338793739</v>
+        <v>0.02465039170833357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.263118</v>
       </c>
       <c r="I8">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J8">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N8">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O8">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P8">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q8">
-        <v>22.295613429027</v>
+        <v>30.934982406846</v>
       </c>
       <c r="R8">
-        <v>133.773680574162</v>
+        <v>185.609894441076</v>
       </c>
       <c r="S8">
-        <v>0.01734987729355637</v>
+        <v>0.04209782360275227</v>
       </c>
       <c r="T8">
-        <v>0.01561760408348356</v>
+        <v>0.0429502919358518</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.263118</v>
       </c>
       <c r="I9">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J9">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P9">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q9">
         <v>54.94987009206201</v>
@@ -1013,10 +1013,10 @@
         <v>494.548830828558</v>
       </c>
       <c r="S9">
-        <v>0.04276058635610033</v>
+        <v>0.07477844686337516</v>
       </c>
       <c r="T9">
-        <v>0.05773682690556033</v>
+        <v>0.114439032060136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6.263118</v>
       </c>
       <c r="I10">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J10">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N10">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O10">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P10">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q10">
-        <v>12.37525310208</v>
+        <v>17.647748341962</v>
       </c>
       <c r="R10">
-        <v>111.37727791872</v>
+        <v>158.829735077658</v>
       </c>
       <c r="S10">
-        <v>0.009630106096038506</v>
+        <v>0.02401591140136763</v>
       </c>
       <c r="T10">
-        <v>0.01300290328385159</v>
+        <v>0.03675333963322233</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.263118</v>
       </c>
       <c r="I11">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J11">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N11">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O11">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P11">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q11">
-        <v>36.42233808513</v>
+        <v>18.512168230527</v>
       </c>
       <c r="R11">
-        <v>218.53402851078</v>
+        <v>111.073009383162</v>
       </c>
       <c r="S11">
-        <v>0.02834293384808692</v>
+        <v>0.02519225588764952</v>
       </c>
       <c r="T11">
-        <v>0.02551307492924941</v>
+        <v>0.02570239153233775</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6.263118</v>
       </c>
       <c r="I12">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J12">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N12">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O12">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P12">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q12">
-        <v>22.049740465946</v>
+        <v>7.882285013734</v>
       </c>
       <c r="R12">
-        <v>198.447664193514</v>
+        <v>70.94056512360599</v>
       </c>
       <c r="S12">
-        <v>0.01715854522938878</v>
+        <v>0.01072659553287341</v>
       </c>
       <c r="T12">
-        <v>0.02316806293558028</v>
+        <v>0.01641570882483565</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.263118</v>
       </c>
       <c r="I13">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J13">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N13">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O13">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P13">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q13">
-        <v>12.675374061718</v>
+        <v>8.782492706502001</v>
       </c>
       <c r="R13">
-        <v>114.078366555462</v>
+        <v>79.04243435851801</v>
       </c>
       <c r="S13">
-        <v>0.009863652566491953</v>
+        <v>0.01195164179789411</v>
       </c>
       <c r="T13">
-        <v>0.01331824582912638</v>
+        <v>0.01829048845290141</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H14">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I14">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J14">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N14">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O14">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P14">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q14">
-        <v>0.1531828941215</v>
+        <v>1.496364525635</v>
       </c>
       <c r="R14">
-        <v>0.9190973647289999</v>
+        <v>8.97818715381</v>
       </c>
       <c r="S14">
-        <v>0.0001192030183399106</v>
+        <v>0.002036325381315155</v>
       </c>
       <c r="T14">
-        <v>0.0001073013667180438</v>
+        <v>0.002077560361057541</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H15">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I15">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J15">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>78.962081</v>
       </c>
       <c r="O15">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P15">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q15">
-        <v>0.3775352563901111</v>
+        <v>2.657995249928333</v>
       </c>
       <c r="R15">
-        <v>3.397817307511</v>
+        <v>23.921957249355</v>
       </c>
       <c r="S15">
-        <v>0.0002937883002506664</v>
+        <v>0.003617128779865527</v>
       </c>
       <c r="T15">
-        <v>0.0003966831534346258</v>
+        <v>0.005535561833224041</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H16">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I16">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J16">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N16">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O16">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P16">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q16">
-        <v>0.08502466602666665</v>
+        <v>0.8536440793449998</v>
       </c>
       <c r="R16">
-        <v>0.76522199424</v>
+        <v>7.682796714104998</v>
       </c>
       <c r="S16">
-        <v>6.616402491836061E-05</v>
+        <v>0.001161680242748313</v>
       </c>
       <c r="T16">
-        <v>8.933696143157736E-05</v>
+        <v>0.001777805880167493</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H17">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I17">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J17">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N17">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O17">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P17">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q17">
-        <v>0.2502411147516667</v>
+        <v>0.8954571710575</v>
       </c>
       <c r="R17">
-        <v>1.50144668851</v>
+        <v>5.372743026345</v>
       </c>
       <c r="S17">
-        <v>0.0001947312483042836</v>
+        <v>0.001218581524800085</v>
       </c>
       <c r="T17">
-        <v>0.0001752885906477463</v>
+        <v>0.001243257436101217</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H18">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I18">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J18">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N18">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O18">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P18">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q18">
-        <v>0.1514936142014444</v>
+        <v>0.3812761720816666</v>
       </c>
       <c r="R18">
-        <v>1.363442527813</v>
+        <v>3.431485548734999</v>
       </c>
       <c r="S18">
-        <v>0.0001178884638235825</v>
+        <v>0.0005188590969644292</v>
       </c>
       <c r="T18">
-        <v>0.0001591770929720556</v>
+        <v>0.0007940487576679991</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H19">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I19">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J19">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N19">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O19">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P19">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q19">
-        <v>0.08708665895322222</v>
+        <v>0.424820365495</v>
       </c>
       <c r="R19">
-        <v>0.783779930579</v>
+        <v>3.823383289455</v>
       </c>
       <c r="S19">
-        <v>6.77686151831588E-05</v>
+        <v>0.0005781161461241844</v>
       </c>
       <c r="T19">
-        <v>9.15035348644457E-05</v>
+        <v>0.0008847342376830115</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H20">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I20">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J20">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N20">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O20">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P20">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q20">
-        <v>35.71984197454125</v>
+        <v>64.5288883309595</v>
       </c>
       <c r="R20">
-        <v>142.879367898165</v>
+        <v>258.115553323838</v>
       </c>
       <c r="S20">
-        <v>0.02779626930545328</v>
+        <v>0.08781403921656207</v>
       </c>
       <c r="T20">
-        <v>0.01668066087405632</v>
+        <v>0.05972816482562134</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H21">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I21">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J21">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>78.962081</v>
       </c>
       <c r="O21">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P21">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q21">
-        <v>88.03528471903917</v>
+        <v>114.6227912574048</v>
       </c>
       <c r="R21">
-        <v>528.2117083142349</v>
+        <v>687.736747544429</v>
       </c>
       <c r="S21">
-        <v>0.06850681154123713</v>
+        <v>0.1559842505726286</v>
       </c>
       <c r="T21">
-        <v>0.06166684879496074</v>
+        <v>0.1591428849792475</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H22">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I22">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J22">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N22">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O22">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P22">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q22">
-        <v>19.8264150304</v>
+        <v>36.81235589774649</v>
       </c>
       <c r="R22">
-        <v>118.9584901824</v>
+        <v>220.874135386479</v>
       </c>
       <c r="S22">
-        <v>0.0154284101239718</v>
+        <v>0.05009603834919627</v>
       </c>
       <c r="T22">
-        <v>0.01388798300281294</v>
+        <v>0.05111046813799983</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H23">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I23">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J23">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N23">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O23">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P23">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q23">
-        <v>58.35229270033749</v>
+        <v>38.61549429060776</v>
       </c>
       <c r="R23">
-        <v>233.40917080135</v>
+        <v>154.461977162431</v>
       </c>
       <c r="S23">
-        <v>0.04540826478586479</v>
+        <v>0.05254983647960104</v>
       </c>
       <c r="T23">
-        <v>0.02724969518207121</v>
+        <v>0.03574263663094418</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H24">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I24">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J24">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N24">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O24">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P24">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q24">
-        <v>35.32592846258416</v>
+        <v>16.44206816589217</v>
       </c>
       <c r="R24">
-        <v>211.955570775505</v>
+        <v>98.65240899535299</v>
       </c>
       <c r="S24">
-        <v>0.02748973586476169</v>
+        <v>0.022375163373585</v>
       </c>
       <c r="T24">
-        <v>0.02474506325499112</v>
+        <v>0.02282825373768313</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H25">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I25">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J25">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N25">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O25">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P25">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q25">
-        <v>20.30723935423583</v>
+        <v>18.3198582004015</v>
       </c>
       <c r="R25">
-        <v>121.843436125415</v>
+        <v>109.919149202409</v>
       </c>
       <c r="S25">
-        <v>0.01580257534014155</v>
+        <v>0.02493055107661101</v>
       </c>
       <c r="T25">
-        <v>0.01422479023833848</v>
+        <v>0.02543538727717273</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H26">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I26">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J26">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N26">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O26">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P26">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q26">
-        <v>67.71863646672399</v>
+        <v>0.8932499273226667</v>
       </c>
       <c r="R26">
-        <v>406.3118188003439</v>
+        <v>5.359499563936001</v>
       </c>
       <c r="S26">
-        <v>0.05269691443676448</v>
+        <v>0.001215577800531707</v>
       </c>
       <c r="T26">
-        <v>0.04743546782317898</v>
+        <v>0.00124019288731506</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H27">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I27">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J27">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>78.962081</v>
       </c>
       <c r="O27">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P27">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q27">
-        <v>166.8996589173662</v>
+        <v>1.586681602743111</v>
       </c>
       <c r="R27">
-        <v>1502.096930256296</v>
+        <v>14.280134424688</v>
       </c>
       <c r="S27">
-        <v>0.1298770545950879</v>
+        <v>0.002159233237877312</v>
       </c>
       <c r="T27">
-        <v>0.1753645040718863</v>
+        <v>0.003304435597415133</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H28">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I28">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J28">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N28">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O28">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P28">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q28">
-        <v>37.58745049429333</v>
+        <v>0.5095800513653332</v>
       </c>
       <c r="R28">
-        <v>338.28705444864</v>
+        <v>4.586220462288</v>
       </c>
       <c r="S28">
-        <v>0.02924959458637662</v>
+        <v>0.0006934612353007775</v>
       </c>
       <c r="T28">
-        <v>0.03949381717144103</v>
+        <v>0.001061255426768104</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H29">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I29">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J29">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N29">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O29">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P29">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q29">
-        <v>110.6258448508933</v>
+        <v>0.5345402402053334</v>
       </c>
       <c r="R29">
-        <v>663.7550691053599</v>
+        <v>3.207241441232001</v>
       </c>
       <c r="S29">
-        <v>0.08608620883066531</v>
+        <v>0.0007274282701953947</v>
       </c>
       <c r="T29">
-        <v>0.07749105678486504</v>
+        <v>0.0007421584750343547</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H30">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I30">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J30">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N30">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O30">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P30">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q30">
-        <v>66.97184464344087</v>
+        <v>0.2276015684462222</v>
       </c>
       <c r="R30">
-        <v>602.7466017909679</v>
+        <v>2.048414116016</v>
       </c>
       <c r="S30">
-        <v>0.05211578010112317</v>
+        <v>0.0003097312471087228</v>
       </c>
       <c r="T30">
-        <v>0.0703685339973717</v>
+        <v>0.0004740048182955961</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H31">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I31">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J31">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N31">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O31">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P31">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q31">
-        <v>38.49901017066044</v>
+        <v>0.2535951328053334</v>
       </c>
       <c r="R31">
-        <v>346.491091535944</v>
+        <v>2.282356195248</v>
       </c>
       <c r="S31">
-        <v>0.02995894705972607</v>
+        <v>0.0003451045495016307</v>
       </c>
       <c r="T31">
-        <v>0.04045160948578717</v>
+        <v>0.0005281392200706286</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H32">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I32">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J32">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N32">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O32">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P32">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q32">
-        <v>4.255594589425</v>
+        <v>3.492080298739667</v>
       </c>
       <c r="R32">
-        <v>25.53356753655</v>
+        <v>20.952481792438</v>
       </c>
       <c r="S32">
-        <v>0.00331159508899273</v>
+        <v>0.004752192145758435</v>
       </c>
       <c r="T32">
-        <v>0.002980953704145511</v>
+        <v>0.004848422614945886</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H33">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I33">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J33">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>78.962081</v>
       </c>
       <c r="O33">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P33">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q33">
-        <v>10.48835774793889</v>
+        <v>6.202989102858778</v>
       </c>
       <c r="R33">
-        <v>94.39521973145001</v>
+        <v>55.826901925729</v>
       </c>
       <c r="S33">
-        <v>0.008161772292873955</v>
+        <v>0.008441328255100416</v>
       </c>
       <c r="T33">
-        <v>0.01102030805171675</v>
+        <v>0.01291839394017559</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H34">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I34">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J34">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N34">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O34">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P34">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q34">
-        <v>2.362081685333334</v>
+        <v>1.992157405864333</v>
       </c>
       <c r="R34">
-        <v>21.258735168</v>
+        <v>17.929416652779</v>
       </c>
       <c r="S34">
-        <v>0.001838111677364091</v>
+        <v>0.002711024365814205</v>
       </c>
       <c r="T34">
-        <v>0.002481882144114224</v>
+        <v>0.004148882697203675</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H35">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I35">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J35">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N35">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O35">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P35">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q35">
-        <v>6.951982074083333</v>
+        <v>2.089737020521834</v>
       </c>
       <c r="R35">
-        <v>41.7118924445</v>
+        <v>12.538422123131</v>
       </c>
       <c r="S35">
-        <v>0.005409855006515207</v>
+        <v>0.002843815435518091</v>
       </c>
       <c r="T35">
-        <v>0.004869715918520329</v>
+        <v>0.002901401847272649</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H36">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I36">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J36">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N36">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O36">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P36">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q36">
-        <v>4.208664476705555</v>
+        <v>0.8897878732725555</v>
       </c>
       <c r="R36">
-        <v>37.87798029035</v>
+        <v>8.008090859452999</v>
       </c>
       <c r="S36">
-        <v>0.003275075273126391</v>
+        <v>0.001210866469560575</v>
       </c>
       <c r="T36">
-        <v>0.00442212023409737</v>
+        <v>0.001853079229951954</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H37">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I37">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J37">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N37">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O37">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P37">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q37">
-        <v>2.419366188227778</v>
+        <v>0.9914073766343333</v>
       </c>
       <c r="R37">
-        <v>21.77429569405</v>
+        <v>8.922666389709001</v>
       </c>
       <c r="S37">
-        <v>0.001882689015377453</v>
+        <v>0.001349155215642962</v>
       </c>
       <c r="T37">
-        <v>0.002542072012123855</v>
+        <v>0.002064712807677801</v>
       </c>
     </row>
   </sheetData>
